--- a/@Papers/SPE2022/Final/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
+++ b/@Papers/SPE2022/Final/1_TORIS_MODEL/BlindTest_SSOIL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\Final\1_TORIS_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A73A2A-02E0-4F6D-A26C-7DF0DCB291D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A13BD8-23F4-4234-AD89-BCEB6A4A0E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30255" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A2" sqref="A2:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
